--- a/final.xlsx
+++ b/final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walid\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB012746-BEF3-4FD1-959B-93088F49761A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6359810C-9C79-49FC-B64D-25D7F1E07873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="147">
   <si>
     <t>Team Name</t>
   </si>
@@ -224,9 +224,6 @@
     <t xml:space="preserve">view all completed internships </t>
   </si>
   <si>
-    <t xml:space="preserve">view the intern salary in different currencies if available </t>
-  </si>
-  <si>
     <t>flag internship document as incomplete</t>
   </si>
   <si>
@@ -260,9 +257,6 @@
     <t xml:space="preserve">to keep tracks of internship posts </t>
   </si>
   <si>
-    <t xml:space="preserve">to be updated always by the new internship chances </t>
-  </si>
-  <si>
     <t>to know if the internship suits me or no</t>
   </si>
   <si>
@@ -368,9 +362,6 @@
     <t>to keep track of my internships</t>
   </si>
   <si>
-    <t>to have an idea of the salary if it from outside the country</t>
-  </si>
-  <si>
     <t>for student to be notified to coplete his/her document</t>
   </si>
   <si>
@@ -380,9 +371,6 @@
     <t>(sent to SCAD)</t>
   </si>
   <si>
-    <t>receive notification when new internship is posted from a followed company</t>
-  </si>
-  <si>
     <t>view the profile of applicant</t>
   </si>
   <si>
@@ -422,9 +410,6 @@
     <t>company</t>
   </si>
   <si>
-    <t>be able to view profiles of student that saved some of my internship</t>
-  </si>
-  <si>
     <t>companies could contact them later</t>
   </si>
   <si>
@@ -462,6 +447,24 @@
   </si>
   <si>
     <t>58-14804</t>
+  </si>
+  <si>
+    <t>be able to view profiles of student that saved any of the company's internships</t>
+  </si>
+  <si>
+    <t>have analytics dashbord of students that applied that could include (chart for majors applied, chart for year of graduation applied, …ect)</t>
+  </si>
+  <si>
+    <t>companies could know the nature of students applying</t>
+  </si>
+  <si>
+    <t>student/faculty academics /companies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">follow other profiles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">they can be up-to-date with their posts added on the followed profiles </t>
   </si>
 </sst>
 </file>
@@ -680,7 +683,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -738,9 +741,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -760,6 +760,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -986,7 +1007,7 @@
   </sheetPr>
   <dimension ref="A1:D997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1046,13 +1067,13 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D7" s="3">
         <v>28</v>
@@ -1060,13 +1081,13 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D8" s="3">
         <v>11</v>
@@ -1074,13 +1095,13 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D9" s="3">
         <v>11</v>
@@ -1088,13 +1109,13 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D10" s="3">
         <v>6</v>
@@ -1102,13 +1123,13 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D11" s="3">
         <v>22</v>
@@ -2125,8 +2146,8 @@
   </sheetPr>
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2176,10 +2197,10 @@
     </row>
     <row r="3" spans="1:7" ht="31.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -2191,13 +2212,13 @@
         <v>15</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -2212,13 +2233,13 @@
         <v>18</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -2233,15 +2254,15 @@
         <v>21</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B6" s="4">
         <v>3</v>
@@ -2256,13 +2277,13 @@
         <v>22</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B7" s="4">
         <v>4</v>
@@ -2277,13 +2298,13 @@
         <v>23</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B8" s="4">
         <v>3</v>
@@ -2298,13 +2319,13 @@
         <v>24</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -2319,13 +2340,13 @@
         <v>25</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -2340,13 +2361,13 @@
         <v>26</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -2361,13 +2382,13 @@
         <v>27</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B12" s="4">
         <v>4</v>
@@ -2382,34 +2403,34 @@
         <v>28</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="A13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="34">
+        <v>1</v>
+      </c>
+      <c r="C13" s="34">
         <v>11</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="5"/>
+      <c r="D13" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B14" s="4">
         <v>4</v>
@@ -2424,13 +2445,13 @@
         <v>30</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B15" s="4">
         <v>12</v>
@@ -2445,13 +2466,13 @@
         <v>31</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B16" s="4">
         <v>12</v>
@@ -2466,13 +2487,13 @@
         <v>32</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B17" s="4">
         <v>12</v>
@@ -2487,13 +2508,13 @@
         <v>33</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B18" s="4">
         <v>12</v>
@@ -2508,13 +2529,13 @@
         <v>34</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B19" s="4">
         <v>16</v>
@@ -2529,13 +2550,13 @@
         <v>35</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -2550,13 +2571,13 @@
         <v>43</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B21" s="4">
         <v>18</v>
@@ -2571,13 +2592,13 @@
         <v>36</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B22" s="4">
         <v>17</v>
@@ -2589,16 +2610,16 @@
         <v>20</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B23" s="4">
         <v>12</v>
@@ -2613,13 +2634,13 @@
         <v>37</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B24" s="4">
         <v>17</v>
@@ -2634,13 +2655,13 @@
         <v>38</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B25" s="4">
         <v>22</v>
@@ -2655,13 +2676,13 @@
         <v>39</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B26" s="4">
         <v>18</v>
@@ -2676,13 +2697,13 @@
         <v>40</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B27" s="4">
         <v>17</v>
@@ -2697,13 +2718,13 @@
         <v>42</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B28" s="4">
         <v>17</v>
@@ -2718,15 +2739,15 @@
         <v>45</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B29" s="4">
         <v>26</v>
@@ -2741,13 +2762,13 @@
         <v>46</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
@@ -2762,13 +2783,13 @@
         <v>48</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B31" s="4">
         <v>28</v>
@@ -2783,13 +2804,13 @@
         <v>49</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
@@ -2804,13 +2825,13 @@
         <v>50</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
@@ -2825,13 +2846,13 @@
         <v>51</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B34" s="4">
         <v>21</v>
@@ -2846,13 +2867,13 @@
         <v>52</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B35" s="4">
         <v>1</v>
@@ -2867,15 +2888,15 @@
         <v>53</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B36" s="4">
         <v>33</v>
@@ -2887,16 +2908,16 @@
         <v>19</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B37" s="4">
         <v>34</v>
@@ -2911,15 +2932,15 @@
         <v>54</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
@@ -2934,13 +2955,13 @@
         <v>56</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B39" s="4">
         <v>1</v>
@@ -2955,13 +2976,13 @@
         <v>57</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
@@ -2976,13 +2997,13 @@
         <v>63</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B41" s="4">
         <v>26</v>
@@ -2994,16 +3015,16 @@
         <v>44</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B42" s="4">
         <v>39</v>
@@ -3018,13 +3039,13 @@
         <v>55</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B43" s="4">
         <v>1</v>
@@ -3039,13 +3060,13 @@
         <v>58</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B44" s="4">
         <v>1</v>
@@ -3060,13 +3081,13 @@
         <v>59</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B45" s="4">
         <v>38</v>
@@ -3081,13 +3102,13 @@
         <v>60</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B46" s="4">
         <v>43</v>
@@ -3102,13 +3123,13 @@
         <v>61</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B47" s="4">
         <v>1</v>
@@ -3123,34 +3144,34 @@
         <v>62</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B48" s="27">
+        <v>120</v>
+      </c>
+      <c r="B48" s="26">
         <v>21</v>
       </c>
-      <c r="C48" s="29">
+      <c r="C48" s="28">
         <v>46</v>
       </c>
-      <c r="D48" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="G48" s="28"/>
+      <c r="D48" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
@@ -3165,13 +3186,13 @@
         <v>64</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B50" s="4">
         <v>1</v>
@@ -3186,34 +3207,34 @@
         <v>65</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B51" s="4">
+        <v>120</v>
+      </c>
+      <c r="B51" s="30">
         <v>1</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="32">
         <v>49</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G51" s="5"/>
+      <c r="D51" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="31"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B52" s="4">
         <v>1</v>
@@ -3225,10 +3246,10 @@
         <v>19</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G52" s="5"/>
     </row>
@@ -3241,15 +3262,15 @@
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="26"/>
+      <c r="A54" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="25"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
